--- a/stocks.xlsx
+++ b/stocks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98" count="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62" count="62">
   <x:si>
     <x:t>StockName</x:t>
   </x:si>
@@ -31,283 +31,175 @@
     <x:t>10Years</x:t>
   </x:si>
   <x:si>
+    <x:t>Avenue Supermarts Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Titan Company Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jubilant Foodworks Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-23%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zomato Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-57%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indian Energy Exchange Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-4%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Asian Paints Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pidilite Industries Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Divis Laboratories Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-30%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tata Consultancy Services Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-15%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Infosys Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-13%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tech Mahindra Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-26%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hindustan Unilever Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-2%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marico Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-3%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITC Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2%</x:t>
+  </x:si>
+  <x:si>
     <x:t>HDFC Bank</x:t>
   </x:si>
   <x:si>
-    <x:t>10%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kotak Mahendra Bank</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25%</x:t>
+    <x:t>-6%</x:t>
   </x:si>
   <x:si>
     <x:t>ICICI Bank</x:t>
   </x:si>
   <x:si>
-    <x:t>59%</x:t>
-  </x:si>
-  <x:si>
     <x:t>29%</x:t>
   </x:si>
   <x:si>
-    <x:t>26%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bajaj Finance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HDFC Finance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nestle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11%</x:t>
-  </x:si>
-  <x:si>
     <x:t>24%</x:t>
   </x:si>
   <x:si>
-    <x:t>27%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hindustan Unilever Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marico Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ITC Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-6%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Britannia Industries Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tata Consultancy Services Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HCL Technologies Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Infosys Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Info Edge (India) Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Happiest Minds Technologies Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>295%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wipro Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Divi's Laboratories Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abbott India Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pfizer Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Divis Laboratories Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aurobindo Pharma Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-23%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-7%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-2%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Torrent Pharmaceuticals Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Asian Paints Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pidilite Industries Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Berger Paints India Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Avenue Supermarts Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>113%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Relaxo Footwears Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57%</x:t>
-  </x:si>
-  <x:si>
     <x:t>Reliance Industries Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Indian Railway Catering &amp; Tourism Corporation Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>222%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eicher Motors Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motherson Sumi Systems Ltd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14%</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -715,7 +607,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>13</x:v>
@@ -732,95 +624,95 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
         <x:v>17</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="E8" s="0" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -828,390 +720,152 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:5">
-      <x:c r="A19" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:5">
-      <x:c r="A20" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="B20" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E20" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:5">
-      <x:c r="A21" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="B21" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="E21" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:5">
-      <x:c r="A22" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B22" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C22" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E22" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:5">
-      <x:c r="A23" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B23" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C23" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E23" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:5">
-      <x:c r="A24" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="B24" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C24" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E24" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:5">
-      <x:c r="A25" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B25" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C25" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D25" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E25" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:5">
-      <x:c r="A26" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B26" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C26" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="E26" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:5">
-      <x:c r="A27" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="B27" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C27" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="E27" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:5">
-      <x:c r="A28" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="B28" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="C28" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="E28" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:5">
-      <x:c r="A29" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="B29" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C29" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="D29" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E29" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:5">
-      <x:c r="A30" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="B30" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C30" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D30" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="E30" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:5">
-      <x:c r="A31" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="B31" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C31" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:5">
-      <x:c r="A32" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="B32" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C32" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D32" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
